--- a/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
+++ b/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6161594-46C6-45B4-91BB-23B794F376D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF85E7D-DC9F-4021-A709-F02A61B577A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
@@ -47,6 +47,554 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A1,A2,A3,A4,A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14,D5,D7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>存入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Add</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>項次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Name</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>性別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Sex</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人員類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_CategoryId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在職狀況</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_OnJob</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_UnitName</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>職稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Position</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加總</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專長代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_SubjectDetailId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專長</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張瓊芬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在職</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私立東海大學環境科學與工程學系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教授</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水及廢水處理、空氣污染物控制、廢棄物處理、資源再利用、環境分析、環境工程、環境污染物控制技術</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>周錦東</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私立醒吾科技大學通識教育中心</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教授綠色旅館</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>源頭減量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、觀光與環境教育、固體廢棄物處理、廢棄管理特論、工業廢水</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吳秋美</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在職</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總統府參事</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新聞策略操作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳鶴文</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>環境規劃與管理、水資源管理、環境數學模式、環境影響評估、環境規劃與管理、環境資源管理、環境經濟學、環境系統分析、環境統計學、永續系統工程、環境政策管理、大數據分析、環境風險評估、環境監測</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>※不含公務機關內聘人員</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>環境部
+出現次數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Env_112</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>能源署
+出現次數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_Eng_112</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -58,544 +606,14 @@
       <t>產發署
 出現次數</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>能源署
-出現次數</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1,A2,A3,A4,A10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A14,D5,D7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>存入</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_Add</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>項次</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_Name</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>性別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_Sex</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人員類別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_CategoryId</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在職狀況</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_OnJob</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_UnitName</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>職稱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_Position</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>環境部
-出現次數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_ev_112</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>加總</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專長代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>_SubjectDetailId</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專長</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張瓊芬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>女</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學者</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在職</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>私立東海大學環境科學與工程學系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>教授</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>水及廢水處理、空氣污染物控制、廢棄物處理、資源再利用、環境分析、環境工程、環境污染物控制技術</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>周錦東</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>私立醒吾科技大學通識教育中心</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>教授綠色旅館</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>源頭減量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、觀光與環境教育、固體廢棄物處理、廢棄管理特論、工業廢水</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學者</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吳秋美</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在職</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總統府參事</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新聞策略操作</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳鶴文</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>環境規劃與管理、水資源管理、環境數學模式、環境影響評估、環境規劃與管理、環境資源管理、環境經濟學、環境系統分析、環境統計學、永續系統工程、環境政策管理、大數據分析、環境風險評估、環境監測</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>※不含公務機關內聘人員</t>
+        <family val="4"/>
+      </rPr>
+      <t>_Ida_112</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -604,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -671,6 +689,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -718,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +817,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1140,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1128,46 +1162,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
@@ -1177,22 +1211,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="2">
         <v>20</v>
@@ -1211,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
@@ -1221,22 +1255,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>20</v>
@@ -1252,30 +1286,30 @@
         <v>20</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <f>SUBTOTAL(3,$C$2:C4)*1</f>
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="4">
@@ -1292,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
@@ -1305,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
@@ -1336,15 +1370,15 @@
         <v>3</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17">
       <c r="B6" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>

--- a/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
+++ b/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF85E7D-DC9F-4021-A709-F02A61B577A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364F9CF4-6D49-47B8-B0B5-835D4697859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">三部門委員專長!$F$1:$F$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">三部門委員專長!$A$1:$P$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">三部門委員專長!$A$1:$S$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">三部門委員專長!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>A3,A4,A10</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -616,13 +616,169 @@
       <t>_Ida_112</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>來源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可複選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_FtisActivityCategoryId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門
+(講習訓練組/永續創新研發中心/綠色技術發展中心/環境與資源服務中心/低碳策略與技術服務組/資訊室/法務室/人資室)_FtisDCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業主_FtisOwner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(113/112/111/110)_FtisYear</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單筆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>填寫代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>)_FtisProjectId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>低碳策略與技術服務組</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>經濟部產業發展署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>永續創新研發中心</t>
+  </si>
+  <si>
+    <t>經濟部能源局</t>
+  </si>
+  <si>
+    <t>A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -702,6 +858,31 @@
       <name val="Times New Roman"/>
       <family val="4"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -749,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +1002,33 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,9 +1049,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -881,7 +1089,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -987,7 +1195,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1129,7 +1337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,13 +1345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89D56AA-2212-4939-986A-F8D5C1531DF4}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.7265625" style="19" customWidth="1"/>
     <col min="2" max="2" width="6" style="21" customWidth="1"/>
@@ -1155,12 +1363,15 @@
     <col min="9" max="12" width="10.6328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.7265625" style="8" customWidth="1"/>
     <col min="14" max="14" width="136" style="19" customWidth="1"/>
-    <col min="15" max="15" width="50.08984375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="48.453125" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="19"/>
+    <col min="15" max="18" width="50.08984375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="48.453125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="21.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1203,8 +1414,23 @@
       <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="O1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="2">
         <f>SUBTOTAL(3,$C$2:C2)*1</f>
@@ -1247,8 +1473,23 @@
       <c r="N2" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="O2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="30">
+        <v>110</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
+    <row r="3" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="2">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
@@ -1291,8 +1532,23 @@
       <c r="N3" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="O3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="30">
+        <v>112</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
+    <row r="4" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1331,8 +1587,23 @@
       <c r="N4" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="O4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="30">
+        <v>111</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="33" customHeight="1">
+    <row r="5" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="2">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
@@ -1375,8 +1646,23 @@
       <c r="N5" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="O5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="30">
+        <v>110</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="17">
+    <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
@@ -1391,6 +1677,9 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N6">

--- a/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
+++ b/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364F9CF4-6D49-47B8-B0B5-835D4697859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9ED6F5-D181-4027-8177-8980F0299436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
   <sheets>
     <sheet name="三部門委員專長" sheetId="5" r:id="rId1"/>
+    <sheet name="專家參與紀錄-會外組別標案" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">三部門委員專長!$F$1:$F$6</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
   <si>
     <t>A3,A4,A10</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -772,13 +773,253 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>評選委員_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委辦單位(會議代碼)_FtisOutActivityCategoryId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>處室組別_SetName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會外年度_SetOutYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>標案名稱_SetBidName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張育傑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>回收基管會</t>
+  </si>
+  <si>
+    <t>111年度推動包裝減量專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管考處</t>
+  </si>
+  <si>
+    <t>111-112年生活轉型淨零排放策略路徑建構發展專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜計處</t>
+  </si>
+  <si>
+    <t>環境保護資源工程產業海外市場輸出計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年辦理臺美環境教育合作與交流專案工作計畫(111年-112年)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>環訓所</t>
+  </si>
+  <si>
+    <t>111年淨零排放企業高階主管研習工作計畫(111年-112年)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年度精進環境教育認證評鑑發展作業專案工作計畫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111至112年元宇宙訓練計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土污基管會</t>
+  </si>
+  <si>
+    <t>土壤及地下水污染綠色永續韌性整治推動計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水保處</t>
+  </si>
+  <si>
+    <t>111年度水環境改善資訊公開暨環境教育推廣平台計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張瓊芬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空保處</t>
+  </si>
+  <si>
+    <t>推動使用中柴油車污染管制及改善專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境督察總隊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年精進環評監督執法專業計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>環管處</t>
+  </si>
+  <si>
+    <t>產品強制性碳足跡標示管理制度專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年低碳永續家園暨強化村里低碳行動計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林文印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>監資處</t>
+  </si>
+  <si>
+    <t>112年度自動監測設備性能評估與校驗系統維運計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111至113年細懸浮微粒標準方法監測(北、中、南區)專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全國空氣品質監測站網評量專案計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112-113年光達監測網與氣膠自動監測網操作維護及資料解析計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年移動污染源管制成效研析及排放量資料建置計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年全球環境教育夥伴(GEEP)亞太中心營運計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永續發展室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021推動國際環保合作深化夥伴交流計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳冠中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111年畜牧糞尿資源利用強化推動計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年度環評書件查詢系統管理維護專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年度環境影響評估專業研析及決策支援計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>應回收廢棄物稽核認證團體（廢電子電器及廢資訊物品類）專案工作計畫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>應回收廢棄物稽核認證團體(廢輪胎類、廢鉛蓄電池類、廢乾電池類及廢照明光源類)專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化學局</t>
+  </si>
+  <si>
+    <t>110-111年度推動化學物質管理之國際公約暨國際交流計畫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周錦東</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核認證管理與監督查核作業專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>應回收廢棄物稽核認證團體(廢機動車輛類)專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二仁溪河道廢棄物場址之環境調查及清理方案評估專案計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧洋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0門淨零路徑策略規劃與排放統計精進</t>
+  </si>
+  <si>
+    <t>溫室氣體階段管制目標及法規相關方案執行成效追蹤與檢討專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>應回收廢棄物稽核認證團體(廢容器類)專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年環境影響評估審查會議支援暨評鑑考評專案工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化學物質永續治理機制研析計畫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江鴻龍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112-113年度汽車空氣污染物驗證核章作業暨新車管制資訊平臺整合工作計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112年大型焚化廠營運管理與技術支援計畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游勝傑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊國恕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +1124,15 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -922,15 +1172,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,25 +1268,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{9872F766-23E2-4AFC-9834-732DD75B0F3A}"/>
+    <cellStyle name="超連結 2" xfId="2" xr:uid="{D68EA2F6-A5A2-474D-BEC4-F3B1768F4CAE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89D56AA-2212-4939-986A-F8D5C1531DF4}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
@@ -1371,7 +1628,7 @@
     <col min="23" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1420,17 +1677,17 @@
       <c r="P1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="2">
         <f>SUBTOTAL(3,$C$2:C2)*1</f>
@@ -1479,17 +1736,17 @@
       <c r="P2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="27">
         <v>110</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="2">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
@@ -1538,17 +1795,17 @@
       <c r="P3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="27">
         <v>112</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1593,17 +1850,17 @@
       <c r="P4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="30">
-        <v>111</v>
-      </c>
-      <c r="S4" s="30" t="s">
+      <c r="R4" s="27">
+        <v>111</v>
+      </c>
+      <c r="S4" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="2">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
@@ -1652,17 +1909,17 @@
       <c r="P5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="27">
         <v>110</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
@@ -1677,9 +1934,6 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N6">
@@ -1701,4 +1955,834 @@
     <brk id="14" max="368" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D85F7FB-FEB5-4B95-BB8C-F3A9FE739C11}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="28">
+        <v>111</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="28">
+        <v>111</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="28">
+        <v>111</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="28">
+        <v>111</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="28">
+        <v>111</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="28">
+        <v>111</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="28">
+        <v>111</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="28">
+        <v>111</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="28">
+        <v>111</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="28">
+        <v>111</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="28">
+        <v>111</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28">
+        <v>111</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="28">
+        <v>111</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="28">
+        <v>111</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="28">
+        <v>111</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="28">
+        <v>111</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="28">
+        <v>111</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="28">
+        <v>111</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="28">
+        <v>111</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="28">
+        <v>111</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="28">
+        <v>111</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="28">
+        <v>111</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="28">
+        <v>111</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="28">
+        <v>111</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="28">
+        <v>111</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="28">
+        <v>111</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="28">
+        <v>111</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="28">
+        <v>111</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="28">
+        <v>111</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="28">
+        <v>111</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="28">
+        <v>111</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="28">
+        <v>111</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="28">
+        <v>111</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="28">
+        <v>111</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="28">
+        <v>111</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="28">
+        <v>111</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="28">
+        <v>111</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="28">
+        <v>111</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="28">
+        <v>111</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="28">
+        <v>111</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="28">
+        <v>111</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="28">
+        <v>111</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="28">
+        <v>111</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="28">
+        <v>111</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="28">
+        <v>111</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="28">
+        <v>111</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="28">
+        <v>111</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
+++ b/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9ED6F5-D181-4027-8177-8980F0299436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C3635-058F-4D14-B3C9-0DEF12E09482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
   <sheets>
-    <sheet name="三部門委員專長" sheetId="5" r:id="rId1"/>
-    <sheet name="專家參與紀錄-會外組別標案" sheetId="6" r:id="rId2"/>
+    <sheet name="增列專家學者資料庫名單" sheetId="7" r:id="rId1"/>
+    <sheet name="三部門委員專長" sheetId="5" r:id="rId2"/>
+    <sheet name="專家參與紀錄-會外組別標案" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">三部門委員專長!$F$1:$F$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">三部門委員專長!$A$1:$S$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">三部門委員專長!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">三部門委員專長!$F$1:$F$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">三部門委員專長!$A$1:$S$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">三部門委員專長!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
   <si>
     <t>A3,A4,A10</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1013,13 +1014,553 @@
   <si>
     <t>樊國恕</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_UnitName</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>職稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Position</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_OfficePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>2_2OfficePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手機號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_PrivatePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_Fax</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)Email_OfficeEmail</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)Email_PrivateEmail</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(辦公)縣市_CityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(辦公)鄉鎮市區_ZIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_OfficeAddress</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(住家)縣市_PCityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(住家)鄉鎮市區_PZIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Paddress</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如葷素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)_Note</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專長代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_SubjectDetailId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃明熙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立臺北科技大學電機工程系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27712171#2139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921772721</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simonh@ntut.edu.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingshi.huang@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺北市</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大安區</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝東路三段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葷</t>
+  </si>
+  <si>
+    <t>C1,C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王輔仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立勤益科技大學冷凍空調與能源系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特聘教授</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-23924505#8218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-23924505#8233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922836010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-23932758</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjwang@ncut.edu.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺中市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>太平區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>坪林里中山路二段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺中市</t>
+  </si>
+  <si>
+    <t>太平區</t>
+  </si>
+  <si>
+    <t>宜佳街40巷20號11樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2,C10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>性別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_Sex</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1133,6 +1674,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1172,7 +1719,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,8 +1729,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,10 +1836,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{9872F766-23E2-4AFC-9834-732DD75B0F3A}"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{D68EA2F6-A5A2-474D-BEC4-F3B1768F4CAE}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1601,10 +2176,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2856634-F746-4DC2-9701-47EC27B0270C}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="35" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="27">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="27">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="27">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{B2941997-E0B0-4C46-813F-699A3EB634E6}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{70CA0383-720B-4FE6-943F-ECD50112061C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89D56AA-2212-4939-986A-F8D5C1531DF4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -1957,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D85F7FB-FEB5-4B95-BB8C-F3A9FE739C11}">
   <dimension ref="A1:E48"/>
   <sheetViews>

--- a/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
+++ b/DocsWeb/Sample/(Sample)範本專家資料匯入.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C3635-058F-4D14-B3C9-0DEF12E09482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3071F18-EE4A-4728-9B3B-A40F9BF5A6CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="166">
   <si>
     <t>A3,A4,A10</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1553,6 +1542,33 @@
       </rPr>
       <t>_Sex</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單筆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專案(專案編號)_FtisProjectId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1560,7 +1576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1881,9 +1897,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1921,7 +1937,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2027,7 +2043,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2169,7 +2185,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2179,11 +2195,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2856634-F746-4DC2-9701-47EC27B0270C}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
@@ -2204,7 +2220,7 @@
     <col min="25" max="25" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="35" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" s="35" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>116</v>
       </c>
@@ -2277,11 +2293,11 @@
       <c r="X1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y1" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>133</v>
       </c>
@@ -2333,7 +2349,7 @@
         <v>147</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>44</v>
@@ -2344,11 +2360,11 @@
       <c r="X2" s="27">
         <v>110</v>
       </c>
-      <c r="Y2" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y2" s="28">
+        <v>114910000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>133</v>
       </c>
@@ -2372,7 +2388,7 @@
       <c r="S3" s="26"/>
       <c r="T3" s="27"/>
       <c r="U3" s="27" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="V3" s="26" t="s">
         <v>44</v>
@@ -2383,11 +2399,11 @@
       <c r="X3" s="27">
         <v>112</v>
       </c>
-      <c r="Y3" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y3" s="27">
+        <v>114760000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
@@ -2447,7 +2463,7 @@
         <v>162</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="V4" s="26" t="s">
         <v>44</v>
@@ -2458,8 +2474,8 @@
       <c r="X4" s="27">
         <v>111</v>
       </c>
-      <c r="Y4" s="27" t="s">
-        <v>48</v>
+      <c r="Y4" s="27">
+        <v>114750003</v>
       </c>
     </row>
   </sheetData>
@@ -2469,6 +2485,7 @@
     <hyperlink ref="L2" r:id="rId2" xr:uid="{70CA0383-720B-4FE6-943F-ECD50112061C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2480,7 +2497,7 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.7265625" style="19" customWidth="1"/>
     <col min="2" max="2" width="6" style="21" customWidth="1"/>
@@ -2500,7 +2517,7 @@
     <col min="23" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="49.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="2">
         <f>SUBTOTAL(3,$C$2:C2)*1</f>
@@ -2618,7 +2635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="2">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
@@ -2677,7 +2694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" s="13" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="2">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
@@ -2791,7 +2808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="17">
       <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
@@ -2808,7 +2825,7 @@
       <c r="M6" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N6">
+  <sortState ref="B2:N6">
     <sortCondition descending="1" ref="I6"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2835,9 +2852,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="30" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
@@ -2854,7 +2871,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
@@ -2871,7 +2888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>58</v>
       </c>
@@ -2888,7 +2905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>58</v>
       </c>
@@ -2905,7 +2922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
@@ -2922,7 +2939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>58</v>
       </c>
@@ -2939,7 +2956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="30" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>58</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>58</v>
       </c>
@@ -2973,7 +2990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>58</v>
       </c>
@@ -2990,7 +3007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>58</v>
       </c>
@@ -3007,7 +3024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="30" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>75</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="30" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>75</v>
       </c>
@@ -3041,7 +3058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="30" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>75</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>75</v>
       </c>
@@ -3075,7 +3092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>75</v>
       </c>
@@ -3092,7 +3109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>83</v>
       </c>
@@ -3109,7 +3126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>83</v>
       </c>
@@ -3126,7 +3143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="25" t="s">
         <v>83</v>
       </c>
@@ -3143,7 +3160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>83</v>
       </c>
@@ -3160,7 +3177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>83</v>
       </c>
@@ -3177,7 +3194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>83</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="25" t="s">
         <v>83</v>
       </c>
@@ -3211,7 +3228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="25" t="s">
         <v>83</v>
       </c>
@@ -3228,7 +3245,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="25" t="s">
         <v>93</v>
       </c>
@@ -3245,7 +3262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="25" t="s">
         <v>93</v>
       </c>
@@ -3262,7 +3279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>93</v>
       </c>
@@ -3279,7 +3296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="25" t="s">
         <v>93</v>
       </c>
@@ -3296,7 +3313,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="25" t="s">
         <v>93</v>
       </c>
@@ -3313,7 +3330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="25" t="s">
         <v>93</v>
       </c>
@@ -3330,7 +3347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="25" t="s">
         <v>93</v>
       </c>
@@ -3347,7 +3364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="25" t="s">
         <v>101</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="A33" s="25" t="s">
         <v>101</v>
       </c>
@@ -3398,7 +3415,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="25" t="s">
         <v>101</v>
       </c>
@@ -3415,7 +3432,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>101</v>
       </c>
@@ -3432,7 +3449,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>101</v>
       </c>
@@ -3449,7 +3466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="25" t="s">
         <v>105</v>
       </c>
@@ -3466,7 +3483,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="25" t="s">
         <v>105</v>
       </c>
@@ -3483,7 +3500,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="25" t="s">
         <v>105</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="A40" s="25" t="s">
         <v>105</v>
       </c>
@@ -3517,7 +3534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="25" t="s">
         <v>105</v>
       </c>
@@ -3534,7 +3551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="30" customHeight="1">
       <c r="A42" s="25" t="s">
         <v>111</v>
       </c>
@@ -3551,7 +3568,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="30" customHeight="1">
       <c r="A43" s="25" t="s">
         <v>111</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="30" customHeight="1">
       <c r="A44" s="25" t="s">
         <v>111</v>
       </c>
@@ -3585,7 +3602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="25" t="s">
         <v>114</v>
       </c>
@@ -3602,7 +3619,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" ht="30" customHeight="1">
       <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
@@ -3619,7 +3636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
@@ -3636,7 +3653,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="30" customHeight="1">
       <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
